--- a/target/Final_Project_Intellij-1.0-SNAPSHOT/fileupload/DeTest.xlsx
+++ b/target/Final_Project_Intellij-1.0-SNAPSHOT/fileupload/DeTest.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4BB6B1-AD72-4879-91EC-62B9403B17A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18468" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="6">
   <si>
     <t>Tea or coffee?</t>
   </si>
@@ -43,8 +37,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,16 +58,346 @@
       <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -75,9 +405,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -92,17 +664,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -360,28 +976,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="32.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="21.4444444444444" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="19.2">
+    <row r="2" ht="19.2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -404,7 +1020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19.2">
+    <row r="3" ht="19.2" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -427,7 +1043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19.2">
+    <row r="4" ht="19.2" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -450,7 +1066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.2">
+    <row r="5" ht="19.2" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -473,7 +1089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19.2">
+    <row r="6" ht="19.2" spans="1:7">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -496,7 +1112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19.2">
+    <row r="7" ht="19.2" spans="1:7">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -519,7 +1135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19.2">
+    <row r="8" ht="19.2" spans="1:7">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -542,7 +1158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.2">
+    <row r="9" ht="19.2" spans="1:7">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -565,7 +1181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19.2">
+    <row r="10" ht="19.2" spans="1:7">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -588,7 +1204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19.2">
+    <row r="11" ht="19.2" spans="1:7">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -611,7 +1227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19.2">
+    <row r="12" ht="19.2" spans="1:7">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -634,7 +1250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19.2">
+    <row r="13" ht="19.2" spans="1:7">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -657,7 +1273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19.2">
+    <row r="14" ht="19.2" spans="1:7">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -680,7 +1296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="19.2">
+    <row r="15" ht="19.2" spans="1:7">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -703,7 +1319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="19.2">
+    <row r="16" ht="19.2" spans="1:7">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -726,7 +1342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="19.2">
+    <row r="17" ht="19.2" spans="1:7">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -749,7 +1365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="19.2">
+    <row r="18" ht="19.2" spans="1:7">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -772,7 +1388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="19.2">
+    <row r="19" ht="19.2" spans="1:7">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -795,7 +1411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="19.2">
+    <row r="20" ht="19.2" spans="1:7">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -818,7 +1434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="19.2">
+    <row r="21" ht="19.2" spans="1:7">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -841,7 +1457,238 @@
         <v>5</v>
       </c>
     </row>
+    <row r="22" ht="19.2" spans="1:7">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" ht="19.2" spans="1:7">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" ht="19.2" spans="1:7">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" ht="19.2" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" ht="19.2" spans="1:7">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" ht="19.2" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" ht="19.2" spans="1:7">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" ht="19.2" spans="1:7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" ht="19.2" spans="1:7">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" ht="19.2" spans="1:7">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>